--- a/文案/文案表 - 主角武器特色、技能設計.xlsx
+++ b/文案/文案表 - 主角武器特色、技能設計.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameWork\Edelweiss Game Studio\瘟疫專案文案\文案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\瘟疫專案\文案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BADC48E7-103C-474E-8B0F-6864306A0443}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{F953F84B-694E-4343-B658-75235B471942}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="軍刀" sheetId="1" r:id="rId1"/>
+    <sheet name="大劍" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>核心特色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,11 +142,6 @@
   <si>
     <t>.攻擊力
 .施展條件增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三連段的軍刀斬擊
-命中時有機率使敵人掉落魔素，但不會產生爆擊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,6 +190,28 @@
   </si>
   <si>
     <t>.爆擊率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器機制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱點探知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懶人包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏人、見縫插針的打法
+主要輸出偏被動(必須反擊或閃避成功才可施放)，敵人越是攻擊，玩家的輸出機會就越多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三連段的軍刀斬擊
+命中時有機率使敵人掉落魔素，但不會產生爆擊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -249,11 +265,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武器機制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱點探知</t>
+    <t>誓約之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掃擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防禦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩擊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -277,7 +305,7 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-弱點探知唯一條計量條，數值總計100，分成5格(每隔20計量)
+弱點探知是一條計量條，數值總計100，分成5格(每隔20計量)
 </t>
     </r>
     <r>
@@ -393,11 +421,373 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>旋擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二連段的橫掃擊
+攻擊時可搭配方向鍵來進行走步方向控制
+[誓約之刃狀態下減少命中時的卡肉時間]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[攻擊動作後]
+方向鍵+Space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墊步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向指定方向墊步小跳，可以用於取消硬質快速進入移動狀態
+位移距離短，且沒有迴避判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">大劍的機動性較差，但相對地提供許多防禦性能的強化，能夠硬碰硬的戰鬥風格
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>防禦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> : 遊戲中主角唯一的防禦功能，能穩定的抵擋襲來的攻擊。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>誓約之刃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> : 大幅提升抗打擊能力，並且能強化所有攻擊動作。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[防禦時]
+RM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型防禦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[衝刺後]
+RM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躍擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將劍插入地面的防禦動作，可以抵擋所有強度的攻擊
+無法移動且會持續消耗耐力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用劍身進行隔擋防禦前方的攻擊，防禦期間可以緩慢移動
+[誓約之刃狀態下可以抵擋所有強度攻擊]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以迴旋的方式甩動大劍，共造成2連擊
+為連續動作無法中斷，硬質較大
+[誓約之刃狀態下2連擊後會再追加躍擊動作]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用大劍奮力砸向前方，具有相當高的破壞力
+[誓約之刃狀態下會產生直線地裂波]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝刺時向前跳起並用劍重重砸向前方
+[誓約之刃狀態下會產生直線地裂波]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>近身搏鬥，硬碰硬的戰鬥方式
+每種攻擊動作間都有特定的連貫性(如</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>崩擊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>接</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>旋擊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時起手會比較快，反之接其他的動作會比較慢)
+因此只要能掌握動作間的連貫性就能達到行雲流水的連續攻擊，更快進入誓約之刃的狀態</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[簡介]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+誓約之刃是一條計量條，數值總計100，當累計滿後魔素將匯集於劍身，呈現破碎前的樣貌。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[增加/減少機制]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>掃擊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">命中時+10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>崩擊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>躍擊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">命中時+20
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>旋擊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>命中時+15
+一般防禦成功時+10
+完美防禦成功時+30
+進入</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>誓約之刃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">狀態後，計量會歸0，並且在期間內將無法累計。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">[用途]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>誓約之刃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">狀態總共持續45秒
+大幅提升抗打擊能力(即霸體狀態)和攻擊距離，且會使攻擊動作產生額外效果
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -781,13 +1171,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,31 +1236,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -869,114 +1298,216 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,146 +1535,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,12 +1854,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011E3ADA-E0D1-4E16-881C-3A9D10DC9BF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18:K22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1473,111 +1869,165 @@
   <sheetData>
     <row r="1" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="M3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="10"/>
     </row>
     <row r="6" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="P9" s="78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="79"/>
     </row>
     <row r="10" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="81"/>
     </row>
     <row r="11" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="27" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="26" t="s">
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="28"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="41"/>
       <c r="P12" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="83"/>
       <c r="R12" s="83"/>
@@ -1590,29 +2040,29 @@
       <c r="Y12" s="84"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="77" t="s">
+      <c r="E13" s="43"/>
+      <c r="F13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="104"/>
       <c r="P13" s="85" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="86"/>
       <c r="R13" s="86"/>
@@ -1625,19 +2075,19 @@
       <c r="Y13" s="87"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="107"/>
       <c r="P14" s="88"/>
       <c r="Q14" s="89"/>
       <c r="R14" s="89"/>
@@ -1650,19 +2100,19 @@
       <c r="Y14" s="90"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="52"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="107"/>
       <c r="P15" s="88"/>
       <c r="Q15" s="89"/>
       <c r="R15" s="89"/>
@@ -1675,19 +2125,19 @@
       <c r="Y15" s="90"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="107"/>
       <c r="P16" s="88"/>
       <c r="Q16" s="89"/>
       <c r="R16" s="89"/>
@@ -1700,19 +2150,19 @@
       <c r="Y16" s="90"/>
     </row>
     <row r="17" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="55"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="110"/>
       <c r="P17" s="88"/>
       <c r="Q17" s="89"/>
       <c r="R17" s="89"/>
@@ -1725,27 +2175,27 @@
       <c r="Y17" s="90"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="41" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="94" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="47" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="48"/>
-      <c r="N18" s="49"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="104"/>
       <c r="P18" s="88"/>
       <c r="Q18" s="89"/>
       <c r="R18" s="89"/>
@@ -1758,19 +2208,19 @@
       <c r="Y18" s="90"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="52"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="107"/>
       <c r="P19" s="88"/>
       <c r="Q19" s="89"/>
       <c r="R19" s="89"/>
@@ -1783,19 +2233,19 @@
       <c r="Y19" s="90"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="52"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="107"/>
       <c r="P20" s="88"/>
       <c r="Q20" s="89"/>
       <c r="R20" s="89"/>
@@ -1808,19 +2258,19 @@
       <c r="Y20" s="90"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="107"/>
       <c r="P21" s="88"/>
       <c r="Q21" s="89"/>
       <c r="R21" s="89"/>
@@ -1833,19 +2283,19 @@
       <c r="Y21" s="90"/>
     </row>
     <row r="22" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="55"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="110"/>
       <c r="P22" s="88"/>
       <c r="Q22" s="89"/>
       <c r="R22" s="89"/>
@@ -1858,27 +2308,27 @@
       <c r="Y22" s="90"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="94" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="47" t="s">
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="48"/>
-      <c r="N23" s="49"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="104"/>
       <c r="P23" s="88"/>
       <c r="Q23" s="89"/>
       <c r="R23" s="89"/>
@@ -1891,19 +2341,19 @@
       <c r="Y23" s="90"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="52"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="107"/>
       <c r="P24" s="88"/>
       <c r="Q24" s="89"/>
       <c r="R24" s="89"/>
@@ -1916,19 +2366,19 @@
       <c r="Y24" s="90"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="52"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="107"/>
       <c r="P25" s="88"/>
       <c r="Q25" s="89"/>
       <c r="R25" s="89"/>
@@ -1941,19 +2391,19 @@
       <c r="Y25" s="90"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="52"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="107"/>
       <c r="P26" s="88"/>
       <c r="Q26" s="89"/>
       <c r="R26" s="89"/>
@@ -1966,19 +2416,19 @@
       <c r="Y26" s="90"/>
     </row>
     <row r="27" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="55"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="110"/>
       <c r="P27" s="91"/>
       <c r="Q27" s="92"/>
       <c r="R27" s="92"/>
@@ -1992,491 +2442,494 @@
     </row>
     <row r="28" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="57"/>
+      <c r="C29" s="58"/>
     </row>
     <row r="30" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
     </row>
     <row r="31" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="60" t="s">
+      <c r="C32" s="62"/>
+      <c r="D32" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62" t="s">
+      <c r="E32" s="62"/>
+      <c r="F32" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="60" t="s">
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="62"/>
-      <c r="N32" s="61"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="62"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="56" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="65" t="s">
+      <c r="E33" s="58"/>
+      <c r="F33" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="66"/>
-      <c r="N33" s="67"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="114"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="70"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="117"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="70"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="117"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="70"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="117"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="73"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="120"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="74" t="s">
+      <c r="C42" s="76"/>
+      <c r="D42" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="75"/>
-      <c r="F42" s="76" t="s">
+      <c r="E42" s="76"/>
+      <c r="F42" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="74" t="s">
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="76"/>
-      <c r="N42" s="75"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="76"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="98"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="98"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="98"/>
+    </row>
+    <row r="47" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="101"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="94"/>
+      <c r="N48" s="95"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="97"/>
+      <c r="N49" s="98"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="97"/>
+      <c r="N50" s="98"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="97"/>
+      <c r="N51" s="98"/>
+    </row>
+    <row r="52" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="99"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="101"/>
+    </row>
+    <row r="53" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="31"/>
+      <c r="N53" s="32"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="35"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="35"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="35"/>
+    </row>
+    <row r="57" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="38"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="11"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="14"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="14"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="117"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="14"/>
-    </row>
-    <row r="47" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="120"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="17"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
-      <c r="L48" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" s="10"/>
-      <c r="N48" s="11"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="14"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="117"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="14"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="117"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="14"/>
-    </row>
-    <row r="52" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="17"/>
-    </row>
-    <row r="53" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="114"/>
-      <c r="L53" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M53" s="18"/>
-      <c r="N53" s="19"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="117"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="22"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="22"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="117"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="22"/>
-    </row>
-    <row r="57" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="120"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="25"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="15"/>
+      <c r="D58" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="8" t="s">
+      <c r="E58" s="15"/>
+      <c r="F58" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="112" t="s">
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G58" s="113"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="113"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M58" s="18"/>
-      <c r="N58" s="19"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="32"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="117"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="22"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="35"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="117"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="22"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="35"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="116"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="22"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="35"/>
     </row>
     <row r="62" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
-      <c r="J62" s="119"/>
-      <c r="K62" s="120"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="25"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
+    <mergeCell ref="B48:C52"/>
+    <mergeCell ref="D48:E52"/>
+    <mergeCell ref="F48:K52"/>
     <mergeCell ref="P9:Q10"/>
     <mergeCell ref="P12:Y12"/>
     <mergeCell ref="P13:Y27"/>
@@ -2488,31 +2941,32 @@
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="L33:N37"/>
     <mergeCell ref="L42:N42"/>
-    <mergeCell ref="B43:C47"/>
-    <mergeCell ref="D43:E47"/>
-    <mergeCell ref="F43:K47"/>
-    <mergeCell ref="B48:C52"/>
-    <mergeCell ref="D48:E52"/>
-    <mergeCell ref="F48:K52"/>
-    <mergeCell ref="B33:C37"/>
-    <mergeCell ref="D33:E37"/>
-    <mergeCell ref="F33:K37"/>
     <mergeCell ref="B39:C40"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:K42"/>
-    <mergeCell ref="D23:E27"/>
-    <mergeCell ref="F23:K27"/>
+    <mergeCell ref="B43:C47"/>
+    <mergeCell ref="D43:E47"/>
+    <mergeCell ref="F43:K47"/>
     <mergeCell ref="B29:C30"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:K32"/>
+    <mergeCell ref="B33:C37"/>
+    <mergeCell ref="D33:E37"/>
+    <mergeCell ref="F33:K37"/>
+    <mergeCell ref="F18:K22"/>
+    <mergeCell ref="B23:C27"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K6"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:K12"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:K27"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="M3:V6"/>
     <mergeCell ref="B58:C62"/>
     <mergeCell ref="D58:E62"/>
     <mergeCell ref="F58:K62"/>
@@ -2527,8 +2981,1115 @@
     <mergeCell ref="F13:K17"/>
     <mergeCell ref="B18:C22"/>
     <mergeCell ref="D18:E22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Y62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q50" sqref="Q50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="4"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="M3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="13"/>
+    </row>
+    <row r="8" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="P9" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="79"/>
+    </row>
+    <row r="10" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="81"/>
+    </row>
+    <row r="11" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="40"/>
+      <c r="N12" s="41"/>
+      <c r="P12" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="84"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="104"/>
+      <c r="P13" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="87"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="107"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="90"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="107"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="90"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="107"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="90"/>
+    </row>
+    <row r="17" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="110"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="90"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="104"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="90"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="107"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="90"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="107"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="90"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="107"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="90"/>
+    </row>
+    <row r="22" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="110"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="90"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="104"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="90"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="107"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="90"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="107"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="90"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="107"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="90"/>
+    </row>
+    <row r="27" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="110"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="93"/>
+    </row>
+    <row r="28" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="58"/>
+    </row>
+    <row r="30" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+    </row>
+    <row r="31" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="63"/>
+      <c r="N32" s="62"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="58"/>
+      <c r="F33" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="114"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="117"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="117"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="117"/>
+    </row>
+    <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="120"/>
+    </row>
+    <row r="38" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="76"/>
+      <c r="F42" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="77"/>
+      <c r="N42" s="76"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="98"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="98"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="98"/>
+    </row>
+    <row r="47" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="101"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="95"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="97"/>
+      <c r="N49" s="98"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="97"/>
+      <c r="N50" s="98"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="97"/>
+      <c r="N51" s="98"/>
+    </row>
+    <row r="52" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="99"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="101"/>
+    </row>
+    <row r="53" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="32"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="35"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="35"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="35"/>
+    </row>
+    <row r="57" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="38"/>
+    </row>
+    <row r="58" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="121"/>
+      <c r="N58" s="121"/>
+    </row>
+    <row r="59" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="122"/>
+      <c r="M59" s="122"/>
+      <c r="N59" s="122"/>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="122"/>
+      <c r="N60" s="122"/>
+    </row>
+    <row r="61" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="122"/>
+      <c r="N61" s="122"/>
+    </row>
+    <row r="62" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="122"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="122"/>
+      <c r="J62" s="122"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="122"/>
+      <c r="M62" s="122"/>
+      <c r="N62" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="B3:K6"/>
+    <mergeCell ref="M3:V6"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:K17"/>
+    <mergeCell ref="L13:N17"/>
+    <mergeCell ref="P13:Y27"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:E22"/>
     <mergeCell ref="F18:K22"/>
+    <mergeCell ref="L18:N22"/>
     <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:K27"/>
+    <mergeCell ref="L23:N27"/>
+    <mergeCell ref="B43:C47"/>
+    <mergeCell ref="D43:E47"/>
+    <mergeCell ref="F43:K47"/>
+    <mergeCell ref="L43:N47"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="B33:C37"/>
+    <mergeCell ref="D33:E37"/>
+    <mergeCell ref="F33:K37"/>
+    <mergeCell ref="L33:N37"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="B48:C52"/>
+    <mergeCell ref="D48:E52"/>
+    <mergeCell ref="F48:K52"/>
+    <mergeCell ref="L48:N52"/>
+    <mergeCell ref="B53:C57"/>
+    <mergeCell ref="D53:E57"/>
+    <mergeCell ref="F53:K57"/>
+    <mergeCell ref="L53:N57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
